--- a/data/trans_bre/P15B_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15B_3_R-Estudios-trans_bre.xlsx
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-42.0142530826998</v>
+        <v>-43.2832693187558</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-32.60721933890128</v>
+        <v>-32.4087635085524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.03374375123594</v>
+        <v>-19.12213697110767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-26.51753091411672</v>
+        <v>-24.54141592696336</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9487821378652688</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.9442313046357663</v>
+        <v>-0.9548249052438811</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.725792649578555</v>
+        <v>-3.397690432776331</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-13.19408972789168</v>
+        <v>-11.70883790742851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1960054591698367</v>
+        <v>0.715293871143866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.188097677942985</v>
+        <v>-1.945171774172016</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.061073656701445</v>
+        <v>-0.0379715816162091</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.6922528971910346</v>
+        <v>-0.6059591436653059</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>0.2147638463155586</v>
+        <v>-0.09738042661630977</v>
       </c>
     </row>
     <row r="7">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-37.79860996265765</v>
+        <v>-37.26357397203805</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-21.63502516082324</v>
+        <v>-22.31890463154711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-16.91053663962186</v>
+        <v>-17.29433731657402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-29.18813416284812</v>
+        <v>-28.23532810609135</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.872952912276346</v>
+        <v>-0.8650323735590902</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8713772111304203</v>
+        <v>-0.8769654498717124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7534844450919389</v>
+        <v>-0.779617071757051</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8058975590701414</v>
+        <v>-0.8014180339729891</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.07878242326428</v>
+        <v>-3.745128294506283</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-6.288807772239224</v>
+        <v>-7.04892304660857</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.661860045955424</v>
+        <v>1.561711169032674</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-7.550503791406624</v>
+        <v>-6.784651097133904</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1374616513248971</v>
+        <v>-0.1279451772223609</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3465635937989734</v>
+        <v>-0.3399420826489727</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1685804436394175</v>
+        <v>0.2446441712742171</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2997885361595347</v>
+        <v>-0.2560920488580073</v>
       </c>
     </row>
     <row r="10">
@@ -856,16 +856,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.16685899283749</v>
+        <v>-27.18184107999529</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-28.81875751330994</v>
+        <v>-28.62062822124675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.61951629150622</v>
+        <v>-15.45008603719294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-17.87854397491893</v>
+        <v>-20.79120020295792</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
@@ -882,20 +882,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.73920043899705</v>
+        <v>29.02627822983917</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.70442921527427</v>
+        <v>15.30389046157572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.27000950946699</v>
+        <v>19.70260266692038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.612219213203072</v>
+        <v>5.713180077579234</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>4.394984256848899</v>
+        <v>2.269076537157789</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="inlineStr"/>
@@ -933,7 +933,7 @@
         <v>-0.4959003383725092</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.6744483545744719</v>
+        <v>-0.6744483545744718</v>
       </c>
     </row>
     <row r="14">
@@ -944,28 +944,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-33.04726828028486</v>
+        <v>-32.27924884512387</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-22.35851290331008</v>
+        <v>-21.91506539666308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.65843247292181</v>
+        <v>-13.74372270225399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-22.53783967824075</v>
+        <v>-22.88722844170185</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8428747601493419</v>
+        <v>-0.8456162596619125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8761873660952924</v>
+        <v>-0.8798398527906941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7293563578228618</v>
+        <v>-0.7523942913603535</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8118757578980499</v>
+        <v>-0.8244933782574257</v>
       </c>
     </row>
     <row r="15">
@@ -976,28 +976,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-11.38037721112311</v>
+        <v>-11.84450732954484</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-10.99384724034273</v>
+        <v>-10.42923846491411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.303060385170256</v>
+        <v>-1.09021460035812</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-7.70696545271587</v>
+        <v>-8.393804699727736</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3680138470103372</v>
+        <v>-0.3974701367880464</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5578382086740458</v>
+        <v>-0.5458680461975949</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04965329207445648</v>
+        <v>-0.06256605114566874</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.4173794682192784</v>
+        <v>-0.4592825486382767</v>
       </c>
     </row>
     <row r="16">
